--- a/download/study-plan[beginner].xlsx
+++ b/download/study-plan[beginner].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21120" windowHeight="8993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18840" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="입문자용(4주30일과정)" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>완료 날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01장 헬로! 프로그레시브 웹앱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,10 +98,6 @@
   </si>
   <si>
     <t>17장 구글 플레이 스토어에 앱 등록하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(                /                   )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,12 +139,24 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>회차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(                /     )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 날짜, 예시 : ( 2020.10.1 / 목 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +224,21 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00A191"/>
+      <name val="Malgun Gothic"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -264,7 +283,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -277,9 +296,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -295,6 +311,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -324,13 +346,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1132063</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>188930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>2150976</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>193639</xdr:rowOff>
@@ -545,14 +567,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>109907</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>209342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>901630</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>660888</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>188405</xdr:rowOff>
     </xdr:to>
@@ -880,260 +902,314 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.8125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="1" max="3" width="7.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="10">
+      <c r="E3" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1">
+      <c r="A11" s="9">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" customHeight="1">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="10">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="9">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="4">
+      <c r="B16" s="10">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="4">
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1">
-      <c r="A7" s="10">
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="4">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="4">
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1">
-      <c r="A11" s="10">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="4">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="4">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1">
-      <c r="A16" s="10">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="4">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="4">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>21</v>
+      <c r="E19" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
